--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029AD8BA-EC32-3642-8FFC-7892B5FC717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B69C5-2FB6-704A-880A-DA62917C0073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,7 +732,7 @@
   <dimension ref="A1:BC29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BC21"/>
+      <selection activeCell="A3" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B69C5-2FB6-704A-880A-DA62917C0073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80BE4F8-C500-B546-AF08-109A0B03B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1587,7 +1587,7 @@
       <c r="A6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C6" t="s">

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80BE4F8-C500-B546-AF08-109A0B03B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CBE0B-E82E-ED46-83C1-101743D5D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="115">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>AnonymousUserTestCases</t>
+  </si>
+  <si>
+    <t>VerifyKeyDropMessage</t>
+  </si>
+  <si>
+    <t>SelectMyCar</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>ReserveButton</t>
   </si>
 </sst>
 </file>
@@ -729,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC29"/>
+  <dimension ref="A1:BG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:BC21"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BD1" sqref="BD1:BG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -748,7 +760,7 @@
     <col min="51" max="51" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,8 +926,20 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -1081,8 +1105,20 @@
       <c r="BC2" t="s">
         <v>57</v>
       </c>
+      <c r="BD2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>110</v>
       </c>
@@ -1248,8 +1284,20 @@
       <c r="BC3" t="s">
         <v>57</v>
       </c>
+      <c r="BD3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>110</v>
       </c>
@@ -1415,8 +1463,20 @@
       <c r="BC4" t="s">
         <v>57</v>
       </c>
+      <c r="BD4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>110</v>
       </c>
@@ -1582,8 +1642,20 @@
       <c r="BC5" t="s">
         <v>57</v>
       </c>
+      <c r="BD5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG5" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>110</v>
       </c>
@@ -1749,8 +1821,20 @@
       <c r="BC6" t="s">
         <v>57</v>
       </c>
+      <c r="BD6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG6" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
@@ -1916,8 +2000,20 @@
       <c r="BC7" t="s">
         <v>57</v>
       </c>
+      <c r="BD7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG7" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>110</v>
       </c>
@@ -2083,8 +2179,20 @@
       <c r="BC8" t="s">
         <v>57</v>
       </c>
+      <c r="BD8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG8" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>110</v>
       </c>
@@ -2250,8 +2358,20 @@
       <c r="BC9" t="s">
         <v>57</v>
       </c>
+      <c r="BD9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG9" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2417,8 +2537,20 @@
       <c r="BC10" t="s">
         <v>57</v>
       </c>
+      <c r="BD10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG10" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>110</v>
       </c>
@@ -2584,8 +2716,20 @@
       <c r="BC11" t="s">
         <v>57</v>
       </c>
+      <c r="BD11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>110</v>
       </c>
@@ -2751,8 +2895,20 @@
       <c r="BC12" t="s">
         <v>57</v>
       </c>
+      <c r="BD12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG12" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>110</v>
       </c>
@@ -2918,8 +3074,20 @@
       <c r="BC13" t="s">
         <v>57</v>
       </c>
+      <c r="BD13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>110</v>
       </c>
@@ -3085,8 +3253,20 @@
       <c r="BC14" t="s">
         <v>57</v>
       </c>
+      <c r="BD14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG14" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
@@ -3252,8 +3432,20 @@
       <c r="BC15" t="s">
         <v>57</v>
       </c>
+      <c r="BD15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
@@ -3419,8 +3611,20 @@
       <c r="BC16">
         <v>2323</v>
       </c>
+      <c r="BD16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG16" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>110</v>
       </c>
@@ -3586,8 +3790,20 @@
       <c r="BC17" t="s">
         <v>57</v>
       </c>
+      <c r="BD17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>110</v>
       </c>
@@ -3753,8 +3969,20 @@
       <c r="BC18" t="s">
         <v>57</v>
       </c>
+      <c r="BD18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG18" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>110</v>
       </c>
@@ -3920,8 +4148,20 @@
       <c r="BC19" t="s">
         <v>57</v>
       </c>
+      <c r="BD19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG19" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>110</v>
       </c>
@@ -4087,8 +4327,20 @@
       <c r="BC20" t="s">
         <v>57</v>
       </c>
+      <c r="BD20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG20" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>110</v>
       </c>
@@ -4254,29 +4506,41 @@
       <c r="BC21" t="s">
         <v>57</v>
       </c>
+      <c r="BD21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG21" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9CBE0B-E82E-ED46-83C1-101743D5D940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3AFB6-866D-994B-8E7A-9FABA5630723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="114">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Budget_RES_G_typeCoupon__SMSCheckbox_IATA_PayLater_US</t>
-  </si>
-  <si>
-    <t>GUZZ007</t>
   </si>
   <si>
     <t>Budget_RES _Digital_wallet_Uplift_Direct_modify_flow_US</t>
@@ -440,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +461,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BD1" sqref="BD1:BG21"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BB18" sqref="BB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,9 +752,10 @@
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
     <col min="22" max="22" width="11.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.1640625"/>
+    <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
@@ -927,21 +928,21 @@
         <v>54</v>
       </c>
       <c r="BD1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -1120,7 +1121,7 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -1478,7 +1479,7 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -1573,7 +1574,7 @@
       <c r="AF5" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="9">
         <v>112000000000</v>
       </c>
       <c r="AH5" t="s">
@@ -1657,7 +1658,7 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>76</v>
@@ -1722,7 +1723,7 @@
       <c r="V6" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="9">
         <v>342000000000000</v>
       </c>
       <c r="X6">
@@ -1836,7 +1837,7 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -1901,7 +1902,7 @@
       <c r="V7" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="9">
         <v>342000000000000</v>
       </c>
       <c r="X7">
@@ -2015,7 +2016,7 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -2194,7 +2195,7 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -2373,7 +2374,7 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -2552,7 +2553,7 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
@@ -2731,7 +2732,7 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>92</v>
@@ -2910,7 +2911,7 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>93</v>
@@ -3089,7 +3090,7 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
@@ -3268,7 +3269,7 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>95</v>
@@ -3447,7 +3448,7 @@
     </row>
     <row r="16" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>99</v>
@@ -3626,7 +3627,7 @@
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
@@ -3805,7 +3806,7 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
@@ -3820,19 +3821,19 @@
         <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
-        <v>64</v>
+      <c r="H18" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="I18" t="s">
         <v>57</v>
       </c>
-      <c r="J18" t="s">
-        <v>65</v>
+      <c r="J18" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="K18" t="s">
         <v>57</v>
@@ -3841,7 +3842,7 @@
         <v>57</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
         <v>57</v>
@@ -3984,10 +3985,10 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -4163,10 +4164,10 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
         <v>56</v>
@@ -4342,7 +4343,7 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>102</v>
@@ -4569,10 +4570,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
         <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>108</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -4721,7 +4722,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC3AFB6-866D-994B-8E7A-9FABA5630723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C11759-D3B5-5D43-8014-ADE4A093F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="114">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -437,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +464,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BB18" sqref="BB18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1571,11 +1574,11 @@
       <c r="AE5" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>112000000000</v>
+      <c r="AF5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="AH5" t="s">
         <v>57</v>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C11759-D3B5-5D43-8014-ADE4A093F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39F89B-EA04-7A41-BAD8-7680E063BA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="121">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -363,6 +363,27 @@
   </si>
   <si>
     <t>ReserveButton</t>
+  </si>
+  <si>
+    <t>ViewModifyCancel</t>
+  </si>
+  <si>
+    <t>UpliftInfo</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>07/13/2023</t>
+  </si>
+  <si>
+    <t>ErrorMessage90</t>
+  </si>
+  <si>
+    <t>PickUplocation1</t>
   </si>
 </sst>
 </file>
@@ -373,12 +394,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,36 +465,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG29"/>
+  <dimension ref="A1:BK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +798,7 @@
     <col min="51" max="51" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +814,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -942,12 +976,24 @@
       <c r="BG1" s="8" t="s">
         <v>113</v>
       </c>
+      <c r="BH1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
@@ -1121,12 +1167,24 @@
       <c r="BG2" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
@@ -1300,12 +1358,24 @@
       <c r="BG3" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
@@ -1479,8 +1549,20 @@
       <c r="BG4" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>109</v>
       </c>
@@ -1658,8 +1740,20 @@
       <c r="BG5" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>109</v>
       </c>
@@ -1837,12 +1931,24 @@
       <c r="BG6" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
@@ -2016,8 +2122,20 @@
       <c r="BG7" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>109</v>
       </c>
@@ -2195,8 +2313,20 @@
       <c r="BG8" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2374,8 +2504,20 @@
       <c r="BG9" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
@@ -2553,8 +2695,20 @@
       <c r="BG10" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>109</v>
       </c>
@@ -2732,8 +2886,20 @@
       <c r="BG11" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>109</v>
       </c>
@@ -2911,8 +3077,20 @@
       <c r="BG12" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>109</v>
       </c>
@@ -3090,16 +3268,28 @@
       <c r="BG13" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
-        <v>56</v>
+      <c r="C14" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
@@ -3108,19 +3298,19 @@
         <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" t="s">
-        <v>64</v>
+      <c r="H14" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I14" t="s">
         <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
@@ -3143,20 +3333,20 @@
       <c r="Q14" t="s">
         <v>57</v>
       </c>
-      <c r="R14" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="3">
-        <v>9838234567</v>
+      <c r="R14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="W14" t="s">
         <v>57</v>
@@ -3261,16 +3451,28 @@
         <v>57</v>
       </c>
       <c r="BE14" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="BF14" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="BG14" s="8" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="BH14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK14" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>109</v>
       </c>
@@ -3448,8 +3650,20 @@
       <c r="BG15" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:63" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>109</v>
       </c>
@@ -3627,8 +3841,20 @@
       <c r="BG16" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>109</v>
       </c>
@@ -3806,8 +4032,20 @@
       <c r="BG17" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>109</v>
       </c>
@@ -3985,12 +4223,24 @@
       <c r="BG18" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C19" t="s">
@@ -4164,8 +4414,20 @@
       <c r="BG19" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>109</v>
       </c>
@@ -4343,8 +4605,20 @@
       <c r="BG20" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>109</v>
       </c>
@@ -4522,29 +4796,41 @@
       <c r="BG21" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="BH21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6686A-0863-BA4A-9690-9C851CD2AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="124">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -378,21 +384,26 @@
   </si>
   <si>
     <t>Budget_Profile_RES_Incognito_PayLater_US</t>
+  </si>
+  <si>
+    <t>UpliftMobile</t>
+  </si>
+  <si>
+    <t>UpliftBirthDate</t>
+  </si>
+  <si>
+    <t>Paynow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,345 +445,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -780,259 +468,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1042,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1051,7 +497,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1063,62 +509,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1376,33 +784,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:BK29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BN29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BK21"/>
+      <selection activeCell="B23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
-    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" customWidth="1"/>
+    <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
+    <col min="64" max="64" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:63">
+    <row r="1" spans="1:66" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,9 +1001,18 @@
       <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="BL1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:63">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1783,9 +1201,18 @@
       <c r="BK2" t="s">
         <v>66</v>
       </c>
+      <c r="BL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="3" spans="1:63">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1974,9 +1401,18 @@
       <c r="BK3" t="s">
         <v>66</v>
       </c>
+      <c r="BL3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:63">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2165,9 +1601,18 @@
       <c r="BK4" t="s">
         <v>66</v>
       </c>
+      <c r="BL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" spans="1:63">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
@@ -2356,9 +1801,18 @@
       <c r="BK5" t="s">
         <v>66</v>
       </c>
+      <c r="BL5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:63">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2547,9 +2001,18 @@
       <c r="BK6" t="s">
         <v>66</v>
       </c>
+      <c r="BL6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="1:63">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2738,9 +2201,18 @@
       <c r="BK7" t="s">
         <v>66</v>
       </c>
+      <c r="BL7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="8" spans="1:63">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
@@ -2929,9 +2401,18 @@
       <c r="BK8" t="s">
         <v>66</v>
       </c>
+      <c r="BL8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="9" spans="1:63">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
@@ -3120,9 +2601,18 @@
       <c r="BK9" t="s">
         <v>66</v>
       </c>
+      <c r="BL9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="10" spans="1:63">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
@@ -3311,9 +2801,18 @@
       <c r="BK10" t="s">
         <v>66</v>
       </c>
+      <c r="BL10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="11" spans="1:63">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
@@ -3502,9 +3001,18 @@
       <c r="BK11" t="s">
         <v>66</v>
       </c>
+      <c r="BL11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="12" spans="1:63">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B12" t="s">
@@ -3693,9 +3201,18 @@
       <c r="BK12" t="s">
         <v>66</v>
       </c>
+      <c r="BL12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="13" spans="1:63">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
@@ -3884,9 +3401,18 @@
       <c r="BK13" t="s">
         <v>66</v>
       </c>
+      <c r="BL13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="14" spans="1:63">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
@@ -4075,9 +3601,18 @@
       <c r="BK14" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="BL14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="1:63">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -4266,9 +3801,18 @@
       <c r="BK15" t="s">
         <v>66</v>
       </c>
+      <c r="BL15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="16" ht="15" spans="1:63">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:66" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="s">
@@ -4457,9 +4001,18 @@
       <c r="BK16" t="s">
         <v>66</v>
       </c>
+      <c r="BL16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="17" spans="1:63">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B17" t="s">
@@ -4648,9 +4201,18 @@
       <c r="BK17" t="s">
         <v>66</v>
       </c>
+      <c r="BL17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="18" spans="1:63">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B18" t="s">
@@ -4839,9 +4401,18 @@
       <c r="BK18" t="s">
         <v>66</v>
       </c>
+      <c r="BL18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="19" spans="1:63">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4907,14 +4478,14 @@
       <c r="V19" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W19" t="s">
-        <v>66</v>
-      </c>
-      <c r="X19">
-        <v>1129</v>
+      <c r="W19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="X19" t="s">
+        <v>66</v>
       </c>
       <c r="Y19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Z19" t="s">
         <v>66</v>
@@ -4922,17 +4493,17 @@
       <c r="AA19" t="s">
         <v>66</v>
       </c>
-      <c r="AB19">
-        <v>123</v>
+      <c r="AB19" t="s">
+        <v>66</v>
       </c>
       <c r="AC19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AD19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE19">
-        <v>99022</v>
+        <v>66</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>66</v>
       </c>
       <c r="AF19" t="s">
         <v>66</v>
@@ -5022,7 +4593,7 @@
         <v>66</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="BJ19" s="3" t="s">
         <v>66</v>
@@ -5030,9 +4601,18 @@
       <c r="BK19" t="s">
         <v>66</v>
       </c>
+      <c r="BL19">
+        <v>5555554206</v>
+      </c>
+      <c r="BM19" s="12">
+        <v>4071963</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="20" spans="1:63">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -5098,8 +4678,8 @@
       <c r="V20" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W20" t="s">
-        <v>66</v>
+      <c r="W20" s="7">
+        <v>342000000000000</v>
       </c>
       <c r="X20">
         <v>1129</v>
@@ -5221,9 +4801,18 @@
       <c r="BK20" t="s">
         <v>66</v>
       </c>
+      <c r="BL20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="21" spans="1:63">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
@@ -5412,49 +5001,56 @@
       <c r="BK21" t="s">
         <v>66</v>
       </c>
+      <c r="BL21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="22" spans="22:22">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="22:22">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="22:22">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="22:22">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="22:22">
+    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="22:22">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="22:22">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="22:22">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5615,7 +5211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>120</v>
       </c>
@@ -5775,6 +5371,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6686A-0863-BA4A-9690-9C851CD2AD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA17A38-987A-9947-B4E5-0DE00E964CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="128">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Paynow</t>
+  </si>
+  <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>ErrorMessageVerify</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FrequentTravellerProgram</t>
   </si>
 </sst>
 </file>
@@ -403,7 +415,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,37 +427,44 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -474,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -790,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN29"/>
+  <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,10 +833,10 @@
     <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
-    <col min="64" max="64" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1001,17 +1026,29 @@
       <c r="BK1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>63</v>
       </c>
@@ -1201,20 +1238,30 @@
       <c r="BK2" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="BL2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
@@ -1401,20 +1448,30 @@
       <c r="BK3" t="s">
         <v>66</v>
       </c>
-      <c r="BL3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" t="s">
+      <c r="BL3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1601,20 +1658,30 @@
       <c r="BK4" t="s">
         <v>66</v>
       </c>
-      <c r="BL4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN4" t="s">
+      <c r="BL4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -1801,20 +1868,30 @@
       <c r="BK5" t="s">
         <v>66</v>
       </c>
-      <c r="BL5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" t="s">
+      <c r="BL5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
@@ -2001,20 +2078,30 @@
       <c r="BK6" t="s">
         <v>66</v>
       </c>
-      <c r="BL6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" t="s">
+      <c r="BL6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
@@ -2201,20 +2288,30 @@
       <c r="BK7" t="s">
         <v>66</v>
       </c>
-      <c r="BL7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN7" t="s">
+      <c r="BL7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" t="s">
         <v>91</v>
       </c>
@@ -2401,20 +2498,30 @@
       <c r="BK8" t="s">
         <v>66</v>
       </c>
-      <c r="BL8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN8" t="s">
+      <c r="BL8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -2601,20 +2708,30 @@
       <c r="BK9" t="s">
         <v>66</v>
       </c>
-      <c r="BL9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN9" t="s">
+      <c r="BL9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" t="s">
         <v>95</v>
       </c>
@@ -2801,20 +2918,30 @@
       <c r="BK10" t="s">
         <v>66</v>
       </c>
-      <c r="BL10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" t="s">
+      <c r="BL10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>98</v>
       </c>
@@ -3001,20 +3128,30 @@
       <c r="BK11" t="s">
         <v>66</v>
       </c>
-      <c r="BL11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN11" t="s">
+      <c r="BL11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
       <c r="B12" t="s">
         <v>100</v>
       </c>
@@ -3201,20 +3338,30 @@
       <c r="BK12" t="s">
         <v>66</v>
       </c>
-      <c r="BL12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN12" t="s">
+      <c r="BL12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN12" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -3401,20 +3548,30 @@
       <c r="BK13" t="s">
         <v>66</v>
       </c>
-      <c r="BL13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN13" t="s">
+      <c r="BL13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" t="s">
         <v>103</v>
       </c>
@@ -3601,20 +3758,30 @@
       <c r="BK14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BL14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN14" t="s">
+      <c r="BL14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>108</v>
       </c>
@@ -3801,20 +3968,30 @@
       <c r="BK15" t="s">
         <v>66</v>
       </c>
-      <c r="BL15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN15" t="s">
+      <c r="BL15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" t="s">
         <v>111</v>
       </c>
@@ -4001,20 +4178,30 @@
       <c r="BK16" t="s">
         <v>66</v>
       </c>
-      <c r="BL16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN16" t="s">
+      <c r="BL16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>114</v>
       </c>
@@ -4201,20 +4388,30 @@
       <c r="BK17" t="s">
         <v>66</v>
       </c>
-      <c r="BL17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN17" t="s">
+      <c r="BL17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
       <c r="B18" t="s">
         <v>115</v>
       </c>
@@ -4401,20 +4598,30 @@
       <c r="BK18" t="s">
         <v>66</v>
       </c>
-      <c r="BL18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN18" t="s">
+      <c r="BL18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>116</v>
       </c>
@@ -4601,20 +4808,30 @@
       <c r="BK19" t="s">
         <v>66</v>
       </c>
-      <c r="BL19">
+      <c r="BL19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP19">
         <v>5555554206</v>
       </c>
-      <c r="BM19" s="12">
+      <c r="BQ19" s="12">
         <v>4071963</v>
       </c>
-      <c r="BN19" t="s">
+      <c r="BR19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
       <c r="B20" t="s">
         <v>117</v>
       </c>
@@ -4801,20 +5018,30 @@
       <c r="BK20" t="s">
         <v>66</v>
       </c>
-      <c r="BL20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN20" t="s">
+      <c r="BL20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>63</v>
-      </c>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
       <c r="B21" t="s">
         <v>114</v>
       </c>
@@ -5001,38 +5228,50 @@
       <c r="BK21" t="s">
         <v>66</v>
       </c>
-      <c r="BL21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" t="s">
+      <c r="BL21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BR21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA17A38-987A-9947-B4E5-0DE00E964CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC37A1-3F08-3E4E-97B5-73F88E0BA111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="128">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1261,9 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
@@ -1471,7 +1473,9 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
@@ -1681,7 +1685,9 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" t="s">
         <v>83</v>
       </c>
@@ -1891,7 +1897,9 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
@@ -2101,7 +2109,9 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
@@ -2311,7 +2321,9 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B8" t="s">
         <v>91</v>
       </c>
@@ -2521,7 +2533,9 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B9" t="s">
         <v>93</v>
       </c>
@@ -2731,7 +2745,9 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B10" t="s">
         <v>95</v>
       </c>
@@ -2941,7 +2957,9 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B11" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +3169,9 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B12" t="s">
         <v>100</v>
       </c>
@@ -3361,7 +3381,9 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -3571,7 +3593,9 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B14" t="s">
         <v>103</v>
       </c>
@@ -3781,7 +3805,9 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B15" t="s">
         <v>108</v>
       </c>
@@ -3991,7 +4017,9 @@
       </c>
     </row>
     <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B16" t="s">
         <v>111</v>
       </c>
@@ -4201,7 +4229,9 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B17" t="s">
         <v>114</v>
       </c>
@@ -4411,7 +4441,9 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B18" t="s">
         <v>115</v>
       </c>
@@ -4621,7 +4653,9 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>116</v>
       </c>
@@ -4831,7 +4865,9 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B20" t="s">
         <v>117</v>
       </c>
@@ -5041,7 +5077,9 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B21" t="s">
         <v>114</v>
       </c>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC37A1-3F08-3E4E-97B5-73F88E0BA111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD067DC-CB2D-9D44-85BB-44D2E370F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="128">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -415,12 +415,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,52 +500,55 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +828,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,12 +1054,12 @@
       <c r="BQ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BR1" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1327,8 +1337,8 @@
       <c r="V3" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W3" t="s">
-        <v>66</v>
+      <c r="W3" s="7">
+        <v>377329664341383</v>
       </c>
       <c r="X3">
         <v>1129</v>
@@ -1964,7 +1974,7 @@
         <v>9838234567</v>
       </c>
       <c r="W6" s="7">
-        <v>342000000000000</v>
+        <v>377329664341383</v>
       </c>
       <c r="X6">
         <v>1129</v>
@@ -2176,7 +2186,7 @@
         <v>9838234567</v>
       </c>
       <c r="W7" s="7">
-        <v>342000000000000</v>
+        <v>377329664341383</v>
       </c>
       <c r="X7">
         <v>1129</v>
@@ -4932,7 +4942,7 @@
         <v>9838234567</v>
       </c>
       <c r="W20" s="7">
-        <v>342000000000000</v>
+        <v>377329664341383</v>
       </c>
       <c r="X20">
         <v>1129</v>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD067DC-CB2D-9D44-85BB-44D2E370F07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449F4EC-2826-554E-A445-3BA123213FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="130">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>FrequentTravellerProgram</t>
+  </si>
+  <si>
+    <t>5555554206</t>
+  </si>
+  <si>
+    <t>04071963</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,13 +470,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -500,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,19 +534,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,7 +824,7 @@
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,10 +1035,10 @@
       <c r="BL1" t="s">
         <v>124</v>
       </c>
-      <c r="BM1" s="14" t="s">
+      <c r="BM1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BN1" s="14" t="s">
+      <c r="BN1" s="12" t="s">
         <v>126</v>
       </c>
       <c r="BO1" s="3" t="s">
@@ -1054,7 +1050,7 @@
       <c r="BQ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BR1" s="16" t="s">
+      <c r="BR1" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1248,13 +1244,13 @@
       <c r="BK2" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" s="15" t="s">
+      <c r="BL2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO2" t="s">
@@ -1271,7 +1267,7 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1460,13 +1456,13 @@
       <c r="BK3" t="s">
         <v>66</v>
       </c>
-      <c r="BL3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" s="15" t="s">
+      <c r="BL3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO3" t="s">
@@ -1483,7 +1479,7 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1672,13 +1668,13 @@
       <c r="BK4" t="s">
         <v>66</v>
       </c>
-      <c r="BL4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN4" s="15" t="s">
+      <c r="BL4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO4" t="s">
@@ -1695,7 +1691,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
@@ -1884,13 +1880,13 @@
       <c r="BK5" t="s">
         <v>66</v>
       </c>
-      <c r="BL5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="15" t="s">
+      <c r="BL5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO5" t="s">
@@ -1907,7 +1903,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2096,13 +2092,13 @@
       <c r="BK6" t="s">
         <v>66</v>
       </c>
-      <c r="BL6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="15" t="s">
+      <c r="BL6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO6" t="s">
@@ -2119,7 +2115,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2308,13 +2304,13 @@
       <c r="BK7" t="s">
         <v>66</v>
       </c>
-      <c r="BL7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN7" s="15" t="s">
+      <c r="BL7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN7" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO7" t="s">
@@ -2331,7 +2327,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
@@ -2520,13 +2516,13 @@
       <c r="BK8" t="s">
         <v>66</v>
       </c>
-      <c r="BL8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN8" s="15" t="s">
+      <c r="BL8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN8" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO8" t="s">
@@ -2543,7 +2539,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
@@ -2732,13 +2728,13 @@
       <c r="BK9" t="s">
         <v>66</v>
       </c>
-      <c r="BL9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN9" s="15" t="s">
+      <c r="BL9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN9" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO9" t="s">
@@ -2755,7 +2751,7 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
@@ -2944,13 +2940,13 @@
       <c r="BK10" t="s">
         <v>66</v>
       </c>
-      <c r="BL10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="15" t="s">
+      <c r="BL10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO10" t="s">
@@ -2967,7 +2963,7 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
@@ -3156,13 +3152,13 @@
       <c r="BK11" t="s">
         <v>66</v>
       </c>
-      <c r="BL11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN11" s="15" t="s">
+      <c r="BL11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO11" t="s">
@@ -3179,7 +3175,7 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B12" t="s">
@@ -3368,13 +3364,13 @@
       <c r="BK12" t="s">
         <v>66</v>
       </c>
-      <c r="BL12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM12" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN12" s="15" t="s">
+      <c r="BL12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN12" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO12" t="s">
@@ -3391,7 +3387,7 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
@@ -3580,13 +3576,13 @@
       <c r="BK13" t="s">
         <v>66</v>
       </c>
-      <c r="BL13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN13" s="15" t="s">
+      <c r="BL13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO13" t="s">
@@ -3603,7 +3599,7 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
@@ -3792,13 +3788,13 @@
       <c r="BK14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BL14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN14" s="15" t="s">
+      <c r="BL14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN14" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO14" t="s">
@@ -3815,7 +3811,7 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -4004,13 +4000,13 @@
       <c r="BK15" t="s">
         <v>66</v>
       </c>
-      <c r="BL15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN15" s="15" t="s">
+      <c r="BL15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN15" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO15" t="s">
@@ -4027,7 +4023,7 @@
       </c>
     </row>
     <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B16" t="s">
@@ -4216,13 +4212,13 @@
       <c r="BK16" t="s">
         <v>66</v>
       </c>
-      <c r="BL16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN16" s="15" t="s">
+      <c r="BL16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN16" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO16" t="s">
@@ -4239,7 +4235,7 @@
       </c>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B17" t="s">
@@ -4428,13 +4424,13 @@
       <c r="BK17" t="s">
         <v>66</v>
       </c>
-      <c r="BL17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM17" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN17" s="15" t="s">
+      <c r="BL17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN17" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO17" t="s">
@@ -4451,7 +4447,7 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B18" t="s">
@@ -4640,13 +4636,13 @@
       <c r="BK18" t="s">
         <v>66</v>
       </c>
-      <c r="BL18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN18" s="15" t="s">
+      <c r="BL18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN18" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO18" s="3" t="s">
@@ -4663,7 +4659,7 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -4852,30 +4848,30 @@
       <c r="BK19" t="s">
         <v>66</v>
       </c>
-      <c r="BL19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN19" s="15" t="s">
+      <c r="BL19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN19" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BO19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP19">
-        <v>5555554206</v>
-      </c>
-      <c r="BQ19" s="12">
-        <v>4071963</v>
+      <c r="BP19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ19" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="BR19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
@@ -5064,16 +5060,16 @@
       <c r="BK20" t="s">
         <v>66</v>
       </c>
-      <c r="BL20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO20" s="15" t="s">
+      <c r="BL20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO20" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BP20" t="s">
@@ -5087,7 +5083,7 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
@@ -5276,16 +5272,16 @@
       <c r="BK21" t="s">
         <v>66</v>
       </c>
-      <c r="BL21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO21" s="15" t="s">
+      <c r="BL21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO21" s="13" t="s">
         <v>66</v>
       </c>
       <c r="BP21" t="s">

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8449F4EC-2826-554E-A445-3BA123213FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F84E7-DD3C-0541-B407-31842876EA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="128">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Budget_RES_U_type_Coupon_PayLater_US</t>
   </si>
   <si>
-    <t>UUZZ011</t>
-  </si>
-  <si>
     <t>Budget_RES_FlightInfo_DigitalWallet_PayPal_PayNow_US</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>Verify</t>
   </si>
   <si>
-    <t>04/13/2023</t>
-  </si>
-  <si>
     <t>07/13/2023</t>
   </si>
   <si>
@@ -350,12 +344,6 @@
     <t>Budget_RES_T_typeCoupon_CCOLocation_PayLater_US</t>
   </si>
   <si>
-    <t>04/18/2023</t>
-  </si>
-  <si>
-    <t>TUZZ008</t>
-  </si>
-  <si>
     <t>Budget_RES_Outbound_StrikeThroughCoupon_LocMandate_FlightInfo_Cancellation_PayLater_US</t>
   </si>
   <si>
@@ -410,7 +398,13 @@
     <t>5555554206</t>
   </si>
   <si>
-    <t>04071963</t>
+    <t>04/07/1963</t>
+  </si>
+  <si>
+    <t>10/13/2023</t>
+  </si>
+  <si>
+    <t>07/18/2023</t>
   </si>
 </sst>
 </file>
@@ -513,9 +507,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -544,6 +535,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,25 +1027,25 @@
         <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR1" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
@@ -1244,13 +1238,13 @@
       <c r="BK2" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BL2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO2" t="s">
@@ -1333,7 +1327,7 @@
       <c r="V3" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="6">
         <v>377329664341383</v>
       </c>
       <c r="X3">
@@ -1456,13 +1450,13 @@
       <c r="BK3" t="s">
         <v>66</v>
       </c>
-      <c r="BL3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BL3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO3" t="s">
@@ -1668,13 +1662,13 @@
       <c r="BK4" t="s">
         <v>66</v>
       </c>
-      <c r="BL4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN4" s="13" t="s">
+      <c r="BL4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO4" t="s">
@@ -1787,7 +1781,7 @@
       <c r="AF5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AH5" t="s">
@@ -1880,13 +1874,13 @@
       <c r="BK5" t="s">
         <v>66</v>
       </c>
-      <c r="BL5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="13" t="s">
+      <c r="BL5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO5" t="s">
@@ -1969,7 +1963,7 @@
       <c r="V6" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="6">
         <v>377329664341383</v>
       </c>
       <c r="X6">
@@ -2092,13 +2086,13 @@
       <c r="BK6" t="s">
         <v>66</v>
       </c>
-      <c r="BL6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="13" t="s">
+      <c r="BL6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO6" t="s">
@@ -2181,7 +2175,7 @@
       <c r="V7" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <v>377329664341383</v>
       </c>
       <c r="X7">
@@ -2304,13 +2298,13 @@
       <c r="BK7" t="s">
         <v>66</v>
       </c>
-      <c r="BL7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN7" s="13" t="s">
+      <c r="BL7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN7" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO7" t="s">
@@ -2516,13 +2510,13 @@
       <c r="BK8" t="s">
         <v>66</v>
       </c>
-      <c r="BL8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN8" s="13" t="s">
+      <c r="BL8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO8" t="s">
@@ -2728,13 +2722,13 @@
       <c r="BK9" t="s">
         <v>66</v>
       </c>
-      <c r="BL9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN9" s="13" t="s">
+      <c r="BL9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN9" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO9" t="s">
@@ -2940,13 +2934,13 @@
       <c r="BK10" t="s">
         <v>66</v>
       </c>
-      <c r="BL10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="13" t="s">
+      <c r="BL10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO10" t="s">
@@ -2999,8 +2993,8 @@
       <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="M11" t="s">
-        <v>99</v>
+      <c r="M11" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="N11" t="s">
         <v>66</v>
@@ -3152,13 +3146,13 @@
       <c r="BK11" t="s">
         <v>66</v>
       </c>
-      <c r="BL11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN11" s="13" t="s">
+      <c r="BL11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO11" t="s">
@@ -3179,7 +3173,7 @@
         <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -3269,9 +3263,9 @@
         <v>66</v>
       </c>
       <c r="AF12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG12" s="10">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="9">
         <v>112000000000</v>
       </c>
       <c r="AH12" t="s">
@@ -3364,13 +3358,13 @@
       <c r="BK12" t="s">
         <v>66</v>
       </c>
-      <c r="BL12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN12" s="13" t="s">
+      <c r="BL12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO12" t="s">
@@ -3391,7 +3385,7 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3576,13 +3570,13 @@
       <c r="BK13" t="s">
         <v>66</v>
       </c>
-      <c r="BL13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN13" s="13" t="s">
+      <c r="BL13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO13" t="s">
@@ -3603,198 +3597,198 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" t="s">
-        <v>106</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK14" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BL14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN14" s="13" t="s">
+      <c r="BL14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN14" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO14" t="s">
@@ -3815,7 +3809,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -3832,14 +3826,14 @@
       <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>105</v>
+      <c r="H15" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
-        <v>109</v>
+      <c r="J15" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="K15" t="s">
         <v>66</v>
@@ -3847,11 +3841,8 @@
       <c r="L15" t="s">
         <v>66</v>
       </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" t="s">
-        <v>110</v>
+      <c r="M15" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="O15" t="s">
         <v>66</v>
@@ -4000,13 +3991,13 @@
       <c r="BK15" t="s">
         <v>66</v>
       </c>
-      <c r="BL15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN15" s="13" t="s">
+      <c r="BL15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN15" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO15" t="s">
@@ -4027,7 +4018,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -4039,7 +4030,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
@@ -4182,8 +4173,8 @@
       <c r="BA16" t="s">
         <v>66</v>
       </c>
-      <c r="BB16" s="11" t="s">
-        <v>113</v>
+      <c r="BB16" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="BC16">
         <v>2323</v>
@@ -4212,13 +4203,13 @@
       <c r="BK16" t="s">
         <v>66</v>
       </c>
-      <c r="BL16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN16" s="13" t="s">
+      <c r="BL16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN16" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO16" t="s">
@@ -4239,7 +4230,7 @@
         <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -4424,13 +4415,13 @@
       <c r="BK17" t="s">
         <v>66</v>
       </c>
-      <c r="BL17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN17" s="13" t="s">
+      <c r="BL17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN17" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO17" t="s">
@@ -4451,7 +4442,7 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -4463,19 +4454,19 @@
         <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>66</v>
+      <c r="H18" t="s">
+        <v>74</v>
       </c>
       <c r="I18" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>66</v>
+      <c r="J18" t="s">
+        <v>75</v>
       </c>
       <c r="K18" t="s">
         <v>66</v>
@@ -4483,8 +4474,8 @@
       <c r="L18" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>99</v>
+      <c r="M18" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="N18" t="s">
         <v>66</v>
@@ -4636,13 +4627,13 @@
       <c r="BK18" t="s">
         <v>66</v>
       </c>
-      <c r="BL18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN18" s="13" t="s">
+      <c r="BL18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN18" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO18" s="3" t="s">
@@ -4663,7 +4654,7 @@
         <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -4725,7 +4716,7 @@
       <c r="V19" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="6" t="s">
         <v>66</v>
       </c>
       <c r="X19" t="s">
@@ -4848,23 +4839,23 @@
       <c r="BK19" t="s">
         <v>66</v>
       </c>
-      <c r="BL19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN19" s="13" t="s">
+      <c r="BL19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN19" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BO19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ19" s="15" t="s">
-        <v>129</v>
+      <c r="BP19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BQ19" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="BR19" t="s">
         <v>66</v>
@@ -4875,7 +4866,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -4937,7 +4928,7 @@
       <c r="V20" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="7">
+      <c r="W20" s="6">
         <v>377329664341383</v>
       </c>
       <c r="X20">
@@ -5060,16 +5051,16 @@
       <c r="BK20" t="s">
         <v>66</v>
       </c>
-      <c r="BL20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO20" s="13" t="s">
+      <c r="BL20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO20" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BP20" t="s">
@@ -5087,7 +5078,7 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -5272,16 +5263,16 @@
       <c r="BK21" t="s">
         <v>66</v>
       </c>
-      <c r="BL21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO21" s="13" t="s">
+      <c r="BL21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="BP21" t="s">
@@ -5344,10 +5335,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5496,7 +5487,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F84E7-DD3C-0541-B407-31842876EA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96362C-B2F1-5145-AF8C-942B08853EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -517,9 +517,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1029,10 +1026,10 @@
       <c r="BL1" t="s">
         <v>120</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BN1" s="10" t="s">
         <v>122</v>
       </c>
       <c r="BO1" s="3" t="s">
@@ -1044,7 +1041,7 @@
       <c r="BQ1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BR1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1238,13 +1235,13 @@
       <c r="BK2" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BL2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO2" t="s">
@@ -1450,13 +1447,13 @@
       <c r="BK3" t="s">
         <v>66</v>
       </c>
-      <c r="BL3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BL3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO3" t="s">
@@ -1662,13 +1659,13 @@
       <c r="BK4" t="s">
         <v>66</v>
       </c>
-      <c r="BL4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN4" s="12" t="s">
+      <c r="BL4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO4" t="s">
@@ -1874,13 +1871,13 @@
       <c r="BK5" t="s">
         <v>66</v>
       </c>
-      <c r="BL5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="12" t="s">
+      <c r="BL5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN5" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO5" t="s">
@@ -2086,13 +2083,13 @@
       <c r="BK6" t="s">
         <v>66</v>
       </c>
-      <c r="BL6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="12" t="s">
+      <c r="BL6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN6" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO6" t="s">
@@ -2298,13 +2295,13 @@
       <c r="BK7" t="s">
         <v>66</v>
       </c>
-      <c r="BL7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BL7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN7" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO7" t="s">
@@ -2510,13 +2507,13 @@
       <c r="BK8" t="s">
         <v>66</v>
       </c>
-      <c r="BL8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN8" s="12" t="s">
+      <c r="BL8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN8" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO8" t="s">
@@ -2722,13 +2719,13 @@
       <c r="BK9" t="s">
         <v>66</v>
       </c>
-      <c r="BL9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN9" s="12" t="s">
+      <c r="BL9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN9" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO9" t="s">
@@ -2934,13 +2931,13 @@
       <c r="BK10" t="s">
         <v>66</v>
       </c>
-      <c r="BL10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="12" t="s">
+      <c r="BL10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO10" t="s">
@@ -2973,19 +2970,19 @@
         <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
         <v>66</v>
@@ -3146,13 +3143,13 @@
       <c r="BK11" t="s">
         <v>66</v>
       </c>
-      <c r="BL11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN11" s="12" t="s">
+      <c r="BL11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO11" t="s">
@@ -3265,7 +3262,7 @@
       <c r="AF12" t="s">
         <v>100</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AG12" s="6">
         <v>112000000000</v>
       </c>
       <c r="AH12" t="s">
@@ -3358,13 +3355,13 @@
       <c r="BK12" t="s">
         <v>66</v>
       </c>
-      <c r="BL12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN12" s="12" t="s">
+      <c r="BL12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN12" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO12" t="s">
@@ -3570,13 +3567,13 @@
       <c r="BK13" t="s">
         <v>66</v>
       </c>
-      <c r="BL13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN13" s="12" t="s">
+      <c r="BL13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO13" t="s">
@@ -3614,7 +3611,7 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>104</v>
       </c>
       <c r="I14" t="s">
@@ -3782,13 +3779,13 @@
       <c r="BK14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BL14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN14" s="12" t="s">
+      <c r="BL14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN14" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO14" t="s">
@@ -3826,13 +3823,13 @@
       <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>127</v>
       </c>
       <c r="K15" t="s">
@@ -3991,13 +3988,13 @@
       <c r="BK15" t="s">
         <v>66</v>
       </c>
-      <c r="BL15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN15" s="12" t="s">
+      <c r="BL15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO15" t="s">
@@ -4173,7 +4170,7 @@
       <c r="BA16" t="s">
         <v>66</v>
       </c>
-      <c r="BB16" s="10" t="s">
+      <c r="BB16" s="9" t="s">
         <v>109</v>
       </c>
       <c r="BC16">
@@ -4203,13 +4200,13 @@
       <c r="BK16" t="s">
         <v>66</v>
       </c>
-      <c r="BL16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN16" s="12" t="s">
+      <c r="BL16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO16" t="s">
@@ -4415,13 +4412,13 @@
       <c r="BK17" t="s">
         <v>66</v>
       </c>
-      <c r="BL17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN17" s="12" t="s">
+      <c r="BL17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN17" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO17" t="s">
@@ -4627,13 +4624,13 @@
       <c r="BK18" t="s">
         <v>66</v>
       </c>
-      <c r="BL18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN18" s="12" t="s">
+      <c r="BL18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN18" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO18" s="3" t="s">
@@ -4839,22 +4836,22 @@
       <c r="BK19" t="s">
         <v>66</v>
       </c>
-      <c r="BL19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN19" s="12" t="s">
+      <c r="BL19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN19" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BO19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BP19" s="14" t="s">
+      <c r="BP19" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="BQ19" s="14" t="s">
+      <c r="BQ19" s="13" t="s">
         <v>125</v>
       </c>
       <c r="BR19" t="s">
@@ -5051,16 +5048,16 @@
       <c r="BK20" t="s">
         <v>66</v>
       </c>
-      <c r="BL20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO20" s="12" t="s">
+      <c r="BL20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO20" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BP20" t="s">
@@ -5263,16 +5260,16 @@
       <c r="BK21" t="s">
         <v>66</v>
       </c>
-      <c r="BL21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO21" s="12" t="s">
+      <c r="BL21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO21" s="11" t="s">
         <v>66</v>
       </c>
       <c r="BP21" t="s">

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96362C-B2F1-5145-AF8C-942B08853EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D701F3-DEFE-FB44-817B-B7E27F54253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="127">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -323,9 +323,6 @@
     <t>Budget_RES_FlightInfo_DigitalWallet_PayPal_PayNow_US</t>
   </si>
   <si>
-    <t>W852801</t>
-  </si>
-  <si>
     <t>Budget_RES_Misc_Verify_Underage_onStep1_FleetFliter_VehicleType_Seats_Mileage_Price_onStep2_US</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>Budget_RES _Digital_wallet_Uplift_Direct_modify_flow_US</t>
   </si>
   <si>
-    <t>Budget_RES_Misc_Step1_2_Step4 _ErrorMsg_Validation_US</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -405,6 +399,9 @@
   </si>
   <si>
     <t>07/18/2023</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Inbound_PayLater_US</t>
   </si>
 </sst>
 </file>
@@ -830,6 +827,7 @@
     <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
+    <col min="65" max="65" width="15.5" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1024,25 +1022,25 @@
         <v>62</v>
       </c>
       <c r="BL1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BO1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="BN1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="BP1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
@@ -1325,7 +1323,7 @@
         <v>9838234567</v>
       </c>
       <c r="W3" s="6">
-        <v>377329664341383</v>
+        <v>378618527195922</v>
       </c>
       <c r="X3">
         <v>1129</v>
@@ -1961,7 +1959,7 @@
         <v>9838234567</v>
       </c>
       <c r="W6" s="6">
-        <v>377329664341383</v>
+        <v>378618527195922</v>
       </c>
       <c r="X6">
         <v>1129</v>
@@ -2173,7 +2171,7 @@
         <v>9838234567</v>
       </c>
       <c r="W7" s="6">
-        <v>377329664341383</v>
+        <v>378618527195922</v>
       </c>
       <c r="X7">
         <v>1129</v>
@@ -3259,11 +3257,11 @@
       <c r="AE12" t="s">
         <v>66</v>
       </c>
-      <c r="AF12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG12" s="6">
-        <v>112000000000</v>
+      <c r="AF12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG12" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="AH12" t="s">
         <v>66</v>
@@ -3382,7 +3380,7 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3594,190 +3592,190 @@
         <v>63</v>
       </c>
       <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK14" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK14" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="BL14" s="11" t="s">
         <v>66</v>
@@ -3806,7 +3804,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -3824,13 +3822,13 @@
         <v>66</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s">
         <v>66</v>
@@ -4015,7 +4013,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -4027,7 +4025,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
@@ -4171,7 +4169,7 @@
         <v>66</v>
       </c>
       <c r="BB16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BC16">
         <v>2323</v>
@@ -4227,7 +4225,7 @@
         <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
@@ -4439,7 +4437,7 @@
         <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -4651,7 +4649,7 @@
         <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -4849,10 +4847,10 @@
         <v>66</v>
       </c>
       <c r="BP19" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BQ19" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BR19" t="s">
         <v>66</v>
@@ -4862,8 +4860,8 @@
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
-        <v>113</v>
+      <c r="B20" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
@@ -4910,8 +4908,8 @@
       <c r="Q20" t="s">
         <v>66</v>
       </c>
-      <c r="R20" t="s">
-        <v>76</v>
+      <c r="R20" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="S20" t="s">
         <v>69</v>
@@ -4925,32 +4923,32 @@
       <c r="V20" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="6">
-        <v>377329664341383</v>
-      </c>
-      <c r="X20">
-        <v>1129</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="W20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AA20" t="s">
         <v>66</v>
       </c>
-      <c r="AB20">
-        <v>123</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE20">
-        <v>99022</v>
+      <c r="AB20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="AF20" t="s">
         <v>66</v>
@@ -5000,17 +4998,17 @@
       <c r="AU20" t="s">
         <v>66</v>
       </c>
-      <c r="AV20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>74</v>
+      <c r="AV20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="AX20" t="s">
         <v>66</v>
       </c>
-      <c r="AY20" t="s">
-        <v>75</v>
+      <c r="AY20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="AZ20" t="s">
         <v>66</v>
@@ -5075,7 +5073,7 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -5332,10 +5330,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5484,7 +5482,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>

--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D701F3-DEFE-FB44-817B-B7E27F54253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9215"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="128">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -212,6 +206,27 @@
     <t>PickUplocation1</t>
   </si>
   <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>ErrorMessageVerify</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FrequentTravellerProgram</t>
+  </si>
+  <si>
+    <t>UpliftMobile</t>
+  </si>
+  <si>
+    <t>UpliftBirthDate</t>
+  </si>
+  <si>
+    <t>Paynow</t>
+  </si>
+  <si>
     <t>AnonymousUserTestCases</t>
   </si>
   <si>
@@ -245,27 +260,33 @@
     <t>Budget_RES_Modify_Cancel_Flow_Step1_to_Step4_US</t>
   </si>
   <si>
+    <t>07/13/2023</t>
+  </si>
+  <si>
+    <t>07/18/2023</t>
+  </si>
+  <si>
+    <t>PayNow</t>
+  </si>
+  <si>
+    <t>701 West</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
     <t>06/13/2023</t>
   </si>
   <si>
     <t>06/23/2023</t>
   </si>
   <si>
-    <t>PayNow</t>
-  </si>
-  <si>
-    <t>701 West</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>ORD</t>
-  </si>
-  <si>
     <t>Budget_RES_KeyDropLocation_M_typeCoupon_PayLater_US</t>
   </si>
   <si>
@@ -320,9 +341,15 @@
     <t>Budget_RES_U_type_Coupon_PayLater_US</t>
   </si>
   <si>
+    <t>MUZZ010</t>
+  </si>
+  <si>
     <t>Budget_RES_FlightInfo_DigitalWallet_PayPal_PayNow_US</t>
   </si>
   <si>
+    <t>Delta</t>
+  </si>
+  <si>
     <t>Budget_RES_Misc_Verify_Underage_onStep1_FleetFliter_VehicleType_Seats_Mileage_Price_onStep2_US</t>
   </si>
   <si>
@@ -332,7 +359,7 @@
     <t>Verify</t>
   </si>
   <si>
-    <t>07/13/2023</t>
+    <t>10/13/2023</t>
   </si>
   <si>
     <t>LHR</t>
@@ -347,9 +374,6 @@
     <t>SYD</t>
   </si>
   <si>
-    <t>Delta</t>
-  </si>
-  <si>
     <t>Budget_RES_Domestic_PayLater_US</t>
   </si>
   <si>
@@ -359,6 +383,15 @@
     <t>Budget_RES _Digital_wallet_Uplift_Direct_modify_flow_US</t>
   </si>
   <si>
+    <t>5555554206</t>
+  </si>
+  <si>
+    <t>04/07/1963</t>
+  </si>
+  <si>
+    <t>Budget_Reservation_Inbound_PayLater_US</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -366,53 +399,21 @@
   </si>
   <si>
     <t>Budget_Profile_RES_Incognito_PayLater_US</t>
-  </si>
-  <si>
-    <t>UpliftMobile</t>
-  </si>
-  <si>
-    <t>UpliftBirthDate</t>
-  </si>
-  <si>
-    <t>Paynow</t>
-  </si>
-  <si>
-    <t>CreditCardType</t>
-  </si>
-  <si>
-    <t>ErrorMessageVerify</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>FrequentTravellerProgram</t>
-  </si>
-  <si>
-    <t>5555554206</t>
-  </si>
-  <si>
-    <t>04/07/1963</t>
-  </si>
-  <si>
-    <t>10/13/2023</t>
-  </si>
-  <si>
-    <t>07/18/2023</t>
-  </si>
-  <si>
-    <t>Budget_Reservation_Inbound_PayLater_US</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,59 +425,382 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -484,68 +808,351 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -803,35 +1410,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="13.1640625" customWidth="1"/>
-    <col min="49" max="49" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
+    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
+    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
-    <col min="65" max="65" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.5" customWidth="1"/>
+    <col min="68" max="68" width="11.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.6" spans="1:70">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,3829 +1629,3829 @@
         <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>120</v>
+        <v>63</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>117</v>
+        <v>68</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:70">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V2" s="1">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70">
+      <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>72</v>
       </c>
-      <c r="BF2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" t="s">
         <v>76</v>
       </c>
-      <c r="S3" t="s">
-        <v>69</v>
-      </c>
       <c r="T3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V3" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="7">
         <v>378618527195922</v>
       </c>
       <c r="X3">
         <v>1129</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB3">
         <v>123</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AE3">
         <v>99022</v>
       </c>
       <c r="AF3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AX3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
         <v>75</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>66</v>
-      </c>
-      <c r="R4" t="s">
-        <v>68</v>
-      </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V4" s="1">
         <v>9838234567</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="BF4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V5" s="1">
         <v>9838234567</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="AH5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="BF5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" t="s">
         <v>76</v>
       </c>
-      <c r="S6" t="s">
-        <v>69</v>
-      </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V6" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="7">
         <v>378618527195922</v>
       </c>
       <c r="X6">
         <v>1129</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Z6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AB6">
         <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="BF6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN6" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>75</v>
-      </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
+        <v>83</v>
+      </c>
+      <c r="S7" t="s">
         <v>76</v>
       </c>
-      <c r="S7" t="s">
-        <v>69</v>
-      </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V7" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="7">
         <v>378618527195922</v>
       </c>
       <c r="X7">
         <v>1129</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Z7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB7">
         <v>123</v>
       </c>
       <c r="AC7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AE7">
         <v>99022</v>
       </c>
       <c r="AF7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AG7">
         <v>38298026</v>
       </c>
       <c r="AH7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="BF7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V8" s="1">
         <v>9838234567</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AG8">
         <v>38298026</v>
       </c>
       <c r="AH8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="BF8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" t="s">
-        <v>68</v>
-      </c>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V9" s="1">
         <v>9838234567</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="BF9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" t="s">
-        <v>68</v>
-      </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V10" s="1">
         <v>9838234567</v>
       </c>
       <c r="W10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AO10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70">
+      <c r="A11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="BF10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" t="s">
         <v>75</v>
       </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" t="s">
-        <v>68</v>
-      </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V11" s="1">
         <v>9838234567</v>
       </c>
       <c r="W11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="BF11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>65</v>
-      </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" t="s">
         <v>75</v>
       </c>
-      <c r="K12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>66</v>
-      </c>
-      <c r="R12" t="s">
-        <v>68</v>
-      </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V12" s="1">
         <v>9838234567</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG12" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="AH12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>66</v>
+        <v>110</v>
+      </c>
+      <c r="BC12">
+        <v>2323</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="BF12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN12" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V13" s="1">
         <v>9838234567</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC13" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD13" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BL14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="BF13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="W14" t="s">
-        <v>66</v>
-      </c>
-      <c r="X14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BL14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>103</v>
+        <v>73</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>125</v>
+        <v>73</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V15" s="1">
         <v>9838234567</v>
       </c>
       <c r="W15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC15" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD15" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:70">
+      <c r="A16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="BF15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V16" s="1">
         <v>9838234567</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AG16">
         <v>38298026</v>
       </c>
       <c r="AH16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB16" s="9" t="s">
-        <v>108</v>
+        <v>73</v>
+      </c>
+      <c r="BB16" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="BC16">
         <v>2323</v>
       </c>
       <c r="BD16" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="BF16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V17" s="1">
         <v>9838234567</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70">
+      <c r="A18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="BF17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" t="s">
         <v>75</v>
       </c>
-      <c r="K18" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" t="s">
-        <v>68</v>
-      </c>
       <c r="S18" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V18" s="1">
         <v>9838234567</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="BF18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R19" t="s">
+        <v>83</v>
+      </c>
+      <c r="S19" t="s">
         <v>76</v>
       </c>
-      <c r="S19" t="s">
-        <v>69</v>
-      </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V19" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W19" s="6" t="s">
-        <v>66</v>
+      <c r="W19" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="X19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AW19" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AX19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY19" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="AZ19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD19" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BF19" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BG19" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BH19" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BI19" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BJ19" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BK19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BL19" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BM19" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BN19" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BO19" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BP19" s="13" t="s">
         <v>122</v>
@@ -4853,473 +5460,475 @@
         <v>123</v>
       </c>
       <c r="BR19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70">
       <c r="A20" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>66</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="S20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V20" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="8" t="s">
-        <v>66</v>
+      <c r="W20" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70">
+      <c r="A21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
         <v>72</v>
       </c>
-      <c r="AL20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BF20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BH20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BI20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V21" s="1">
         <v>9838234567</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BB21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BC21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BH21" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BI21" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BJ21" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BK21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BL21" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BM21" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BN21" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BO21" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BP21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BQ21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BR21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="22:22">
       <c r="V22"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="22:22">
       <c r="V23"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="22:22">
       <c r="V24"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="22:22">
       <c r="V25"/>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="22:22">
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="22:22">
       <c r="V27"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="22:22">
       <c r="V28"/>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="22:22">
       <c r="V29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5330,10 +5939,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5480,165 +6089,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:53">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V2">
         <v>9838234567</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AG2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AM2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AO2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AQ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AT2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AU2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AV2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AW2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AX2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AY2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AZ2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/budget-web-tests/testData/Budget_Anonymous_US.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_US.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D967E-0605-7948-87E0-0FDE23045097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget US Anonymous" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="130">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -290,9 +296,6 @@
     <t>Budget_RES_KeyDropLocation_M_typeCoupon_PayLater_US</t>
   </si>
   <si>
-    <t>MUZZ012</t>
-  </si>
-  <si>
     <t>Budget_RES_Costco_DigitalWallet_PayPal_PayLater_US</t>
   </si>
   <si>
@@ -399,21 +402,26 @@
   </si>
   <si>
     <t>Budget_Profile_RES_Incognito_PayLater_US</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>PDX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,12 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -465,342 +467,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -808,251 +487,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1070,25 +507,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1097,62 +531,21 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1410,35 +803,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="64.5" customWidth="1"/>
-    <col min="22" max="22" width="11.1666666666667" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="25" width="8.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="13.1666666666667" customWidth="1"/>
-    <col min="49" max="49" width="15.3333333333333" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" customWidth="1"/>
+    <col min="49" max="49" width="15.33203125" customWidth="1"/>
     <col min="50" max="50" width="15.5" customWidth="1"/>
     <col min="51" max="51" width="16" customWidth="1"/>
     <col min="65" max="65" width="15.5" customWidth="1"/>
-    <col min="68" max="68" width="11.1666666666667" customWidth="1"/>
+    <col min="68" max="68" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:70">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1631,10 +1024,10 @@
       <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BM1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BN1" s="11" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="3" t="s">
@@ -1650,8 +1043,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1840,13 +1233,13 @@
       <c r="BK2" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BL2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO2" t="s">
@@ -1862,8 +1255,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1929,8 +1322,8 @@
       <c r="V3" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W3" s="7">
-        <v>378618527195922</v>
+      <c r="W3" s="6">
+        <v>345075763071020</v>
       </c>
       <c r="X3">
         <v>1129</v>
@@ -2052,13 +1445,13 @@
       <c r="BK3" t="s">
         <v>73</v>
       </c>
-      <c r="BL3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN3" s="11" t="s">
+      <c r="BL3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN3" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO3" t="s">
@@ -2074,8 +1467,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2091,7 +1484,7 @@
         <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>73</v>
@@ -2111,8 +1504,8 @@
       <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" t="s">
-        <v>91</v>
+      <c r="M4" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="N4" t="s">
         <v>73</v>
@@ -2264,13 +1657,13 @@
       <c r="BK4" t="s">
         <v>73</v>
       </c>
-      <c r="BL4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN4" s="11" t="s">
+      <c r="BL4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO4" t="s">
@@ -2286,12 +1679,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -2383,7 +1776,7 @@
       <c r="AF5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AG5" s="8" t="s">
         <v>73</v>
       </c>
       <c r="AH5" t="s">
@@ -2476,13 +1869,13 @@
       <c r="BK5" t="s">
         <v>73</v>
       </c>
-      <c r="BL5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BL5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN5" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO5" t="s">
@@ -2498,12 +1891,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -2518,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
         <v>73</v>
@@ -2565,20 +1958,20 @@
       <c r="V6" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W6" s="7">
-        <v>378618527195922</v>
+      <c r="W6" s="6">
+        <v>345075763071020</v>
       </c>
       <c r="X6">
         <v>1129</v>
       </c>
       <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z6" t="s">
         <v>95</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>96</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>97</v>
       </c>
       <c r="AB6">
         <v>123</v>
@@ -2688,13 +2081,13 @@
       <c r="BK6" t="s">
         <v>73</v>
       </c>
-      <c r="BL6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN6" s="11" t="s">
+      <c r="BL6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN6" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO6" t="s">
@@ -2710,12 +2103,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -2777,14 +2170,14 @@
       <c r="V7" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W7" s="7">
-        <v>378618527195922</v>
+      <c r="W7" s="6">
+        <v>345075763071020</v>
       </c>
       <c r="X7">
         <v>1129</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z7" t="s">
         <v>73</v>
@@ -2805,7 +2198,7 @@
         <v>99022</v>
       </c>
       <c r="AF7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG7">
         <v>38298026</v>
@@ -2900,13 +2293,13 @@
       <c r="BK7" t="s">
         <v>73</v>
       </c>
-      <c r="BL7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN7" s="11" t="s">
+      <c r="BL7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN7" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO7" t="s">
@@ -2922,12 +2315,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -2957,7 +2350,7 @@
         <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
         <v>73</v>
@@ -3017,7 +2410,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG8">
         <v>38298026</v>
@@ -3112,13 +2505,13 @@
       <c r="BK8" t="s">
         <v>73</v>
       </c>
-      <c r="BL8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN8" s="11" t="s">
+      <c r="BL8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN8" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO8" t="s">
@@ -3134,12 +2527,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -3154,7 +2547,7 @@
         <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>81</v>
@@ -3324,13 +2717,13 @@
       <c r="BK9" t="s">
         <v>73</v>
       </c>
-      <c r="BL9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN9" s="11" t="s">
+      <c r="BL9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN9" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO9" t="s">
@@ -3346,12 +2739,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -3441,129 +2834,129 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN10" t="s">
         <v>105</v>
       </c>
-      <c r="AG10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BL10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
         <v>106</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BL10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70">
-      <c r="A11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -3575,7 +2968,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
@@ -3596,7 +2989,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
@@ -3748,13 +3141,13 @@
       <c r="BK11" t="s">
         <v>73</v>
       </c>
-      <c r="BL11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN11" s="11" t="s">
+      <c r="BL11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN11" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO11" t="s">
@@ -3770,12 +3163,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -3867,7 +3260,7 @@
       <c r="AF12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG12" s="9" t="s">
+      <c r="AG12" s="8" t="s">
         <v>73</v>
       </c>
       <c r="AH12" t="s">
@@ -3931,7 +3324,7 @@
         <v>73</v>
       </c>
       <c r="BB12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BC12">
         <v>2323</v>
@@ -3960,13 +3353,13 @@
       <c r="BK12" t="s">
         <v>73</v>
       </c>
-      <c r="BL12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN12" s="11" t="s">
+      <c r="BL12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN12" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO12" t="s">
@@ -3982,12 +3375,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -4172,13 +3565,13 @@
       <c r="BK13" t="s">
         <v>73</v>
       </c>
-      <c r="BL13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN13" s="11" t="s">
+      <c r="BL13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN13" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO13" t="s">
@@ -4194,15 +3587,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D14" t="s">
         <v>73</v>
@@ -4223,195 +3616,195 @@
         <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>73</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BG14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>73</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" t="s">
-        <v>73</v>
-      </c>
-      <c r="X14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BJ14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BK14" s="4" t="s">
+      <c r="BL14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
         <v>115</v>
-      </c>
-      <c r="BL14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:70">
-      <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -4423,7 +3816,7 @@
         <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>73</v>
@@ -4444,7 +3837,7 @@
         <v>73</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
         <v>73</v>
@@ -4593,13 +3986,13 @@
       <c r="BK15" t="s">
         <v>73</v>
       </c>
-      <c r="BL15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN15" s="11" t="s">
+      <c r="BL15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN15" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO15" t="s">
@@ -4615,12 +4008,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:70">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
         <v>72</v>
@@ -4632,7 +4025,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
         <v>73</v>
@@ -4710,7 +4103,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG16">
         <v>38298026</v>
@@ -4775,8 +4168,8 @@
       <c r="BA16" t="s">
         <v>73</v>
       </c>
-      <c r="BB16" s="10" t="s">
-        <v>110</v>
+      <c r="BB16" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="BC16">
         <v>2323</v>
@@ -4805,13 +4198,13 @@
       <c r="BK16" t="s">
         <v>73</v>
       </c>
-      <c r="BL16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN16" s="11" t="s">
+      <c r="BL16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN16" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO16" t="s">
@@ -4827,12 +4220,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:70">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -5017,13 +4410,13 @@
       <c r="BK17" t="s">
         <v>73</v>
       </c>
-      <c r="BL17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM17" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN17" s="11" t="s">
+      <c r="BL17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN17" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO17" t="s">
@@ -5039,12 +4432,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -5056,7 +4449,7 @@
         <v>73</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -5076,8 +4469,8 @@
       <c r="L18" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>91</v>
+      <c r="M18" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="N18" t="s">
         <v>73</v>
@@ -5229,13 +4622,13 @@
       <c r="BK18" t="s">
         <v>73</v>
       </c>
-      <c r="BL18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM18" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN18" s="11" t="s">
+      <c r="BL18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN18" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO18" s="3" t="s">
@@ -5251,12 +4644,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -5307,10 +4700,10 @@
         <v>83</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="T19" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="U19" t="s">
         <v>78</v>
@@ -5318,7 +4711,7 @@
       <c r="V19" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W19" s="7" t="s">
+      <c r="W19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="X19" t="s">
@@ -5441,34 +4834,34 @@
       <c r="BK19" t="s">
         <v>73</v>
       </c>
-      <c r="BL19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN19" s="11" t="s">
+      <c r="BL19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN19" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BO19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BP19" s="13" t="s">
+      <c r="BP19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ19" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BQ19" s="13" t="s">
+      <c r="BR19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:70">
-      <c r="A20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C20" t="s">
         <v>72</v>
@@ -5530,7 +4923,7 @@
       <c r="V20" s="1">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="8" t="s">
         <v>73</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -5653,16 +5046,16 @@
       <c r="BK20" t="s">
         <v>73</v>
       </c>
-      <c r="BL20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO20" s="11" t="s">
+      <c r="BL20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO20" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BP20" t="s">
@@ -5675,12 +5068,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -5865,16 +5258,16 @@
       <c r="BK21" t="s">
         <v>73</v>
       </c>
-      <c r="BL21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO21" s="11" t="s">
+      <c r="BL21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO21" s="10" t="s">
         <v>73</v>
       </c>
       <c r="BP21" t="s">
@@ -5887,48 +5280,46 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="22:22">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V22"/>
     </row>
-    <row r="23" spans="22:22">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V23"/>
     </row>
-    <row r="24" spans="22:22">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V24"/>
     </row>
-    <row r="25" spans="22:22">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V25"/>
     </row>
-    <row r="26" spans="22:22">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V26"/>
     </row>
-    <row r="27" spans="22:22">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V27"/>
     </row>
-    <row r="28" spans="22:22">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V28"/>
     </row>
-    <row r="29" spans="22:22">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="V29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5939,10 +5330,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -6089,9 +5480,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -6249,6 +5640,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>